--- a/patent_categorization.xlsx
+++ b/patent_categorization.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,61 +451,3636 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry Domain</t>
+          <t>Cooled Detectors</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Technology Area</t>
+          <t>Uncooled Detectors</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Sub-Technology Area</t>
+          <t>InGaAs Based Detectors</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Fabrication/Chip Designing</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Improvement</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Error Correction/Management</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Technology Focus</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>CN109459146B</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Preparation method of uncooled infrared detector based on piezoelectric resonator</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A preparation method of an uncooled infrared detector based on a piezoelectric resonator relates to the technical field of infrared detection, and solves the problem of low absorption rate of the infrared detector obtained by the preparation method, including preparing a piezoelectric resonator; The metal reflection layer, the dielectric layer and the metal array layer are prepared; the readout integrated circuit substrate is prepared; the readout integrated circuit substrate and the piezoelectric resonator are connected. The preparation method of the invention has the advantages of integrated manufacturing, mass production, low cost and the like; by integrating a metal reflection layer, a dielectric layer and a metal array layer on the surface of the piezoelectric resonator, the metal array layer is used to achieve enhanced absorption of infrared spectrum and energy absorption Acting on the piezoelectric resonator increases the absorption rate to more than 80%, and at the same time increases the selectivity of the uncooled infrared detector to the incident spectrum. The uncooled infrared detector prepared by the method not only has the advantages of traditional uncooled infrared detection, but also has fast response and high detection sensitivity.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Manufacturing method, enhanced absorption of infrared spectrum</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CN109633879B</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>High-resolution visible light medium wave infrared dual-band optical imaging system</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The invention belongs to the technical field of photoelectricity, in particular relates to a high-resolution visible light medium-wave infrared dual-band optical imaging system, and solves the problems that an existing dual-band optical system is low in target identification capability and large in system size and cannot meet the requirement of carrying and using on a small satellite. The system comprises a first reflecting mirror, a second reflecting mirror and a light splitting element, wherein a through hole is formed in the center of the first reflecting mirror; the device also comprises a visible light lens group, a visible light detector, a medium wave infrared lens group and a medium wave infrared refrigeration detector; after being reflected by the first reflecting mirror and the second reflecting mirror in sequence, the light beam from the object space is divided into a visible light beam and a medium wave infrared light beam by the light splitting element, the visible light beam sequentially passes through the visible light lens group and reaches the target surface of the visible light detector, and after sequentially passing through the medium wave infrared lens group, the light beam propagation direction is changed by 180 degrees and reaches the target surface of the medium wave infrared refrigeration type detector.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>High-resolution visible light medium wave infrared dual-band optical imaging system suitable for microsatellites.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CN109813447B</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Uncooled infrared focal plane integrating broadband artificial surface and method of making the same</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>An uncooled infrared focal plane integrated with a broadband artificial surface and a manufacturing method thereof relate to the technical field of infrared detection and imaging and solve the problems that the complexity of an absorption layer is increased for realizing broadband absorption and the performance of the existing uncooled focal plane is limited due to a multi-layer microbridge structure. The focal plane comprises an array consisting of a plurality of pixels, and each pixel sequentially comprises from bottom to top: the readout circuit is a silicon-based or germanium-based CMOS integrated circuit with the functions of amplifying and reducing noise, and a readout electrode pair is arranged on the CMOS integrated circuit; the heat insulation microbridge comprises a microbridge surface, two micro support structures and two micro cantilever beams; the thermistor layer is made of a material with the temperature resistance coefficient absolute value higher than 2%; the reading electrode is connected with the thermistor layer through the through hole; the passivation insulating layer protects the thermistor layer; the broadband absorption film layer comprises a metal layer, a dielectric layer and a metal microarray, and the manufacturing method is compatible with the processing technology of the traditional uncooled infrared detector, has simple technology and is beneficial to large-scale low-cost preparation.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Integrated broadband artificial surface technology</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CN109870239B</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Self-adaptive calibration method for uncooled infrared focal plane detector</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The invention relates to a self-adaptive calibration method of an uncooled infrared focal plane detector, which comprises the following steps: based on standard blackbody radiation sources with different target temperatures, acquiring standard blackbody radiation source images through an uncooled infrared focal plane detector at different environmental temperatures, and calculating to obtain a calibration curve according to the standard blackbody radiation source images; collecting the current environment temperature of the uncooled infrared focal plane detector, and calculating the highest target temperature in the current view field according to the calibration curve; enabling the metal baffle plate entering the current field to reach the highest target temperature, and then collecting a metal baffle plate image through an uncooled infrared focal plane detector; and calculating to obtain correction parameters according to the standard black body radiation source image and the metal baffle image, and correcting the calibration curve according to the correction parameters to finish calibration. The invention can still ensure higher calibration precision when the environment and the scene are greatly changed, thereby ensuring that the non-refrigeration infrared focal plane detector after calibration has quantitative temperature measurement capability.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Self-adaptive calibration method for uncooled infrared focal plane detector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CN110006538B</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Non-refrigeration infrared focal plane array reading circuit without TEC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The invention discloses a TEC-free uncooled infrared focal plane array reading circuit, and relates to the technical field of uncooled infrared focal plane arrays. The readout circuit comprises a bias voltage generating circuit, a column-level analog front-end circuit and a row-level circuit; the row-level circuit comprises row-level mirror image pixels, is controlled by the row selection switch and can output a third bias voltage; the bias voltage generating circuit is connected with the row-level circuit, and the input end of the bias voltage generating circuit is connected with the output end of the row-level circuit; generating and outputting a first bias voltage and a second bias voltage according to the input constant voltage and a third bias voltage; the column-level analog front-end circuit comprises blind pixels; the column-level analog front-end circuit is connected with the bias voltage generating circuit, the input end of the column-level analog front-end circuit is connected with the output end of the bias voltage generating circuit, two paths of currents are obtained, and the difference between the two paths of generated currents is subjected to trans-impedance amplification and is used as voltage output. By adopting the technical scheme of the invention, the circuit has a stable output point which is not influenced by the substrate temperature and the self-heating effect, and the stability of the circuit is enhanced.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Non-refrigeration infrared focal plane array reading circuit without TEC</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CN110440930B</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Low-noise infrared detector structure, chip and testing method thereof</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A low-noise infrared detector structure and a wafer having the structure, the structure includes a pixel array, a correction unit and an output amplifying unit; the correction unit includes a compensation mapping relationship module, a control interface module and a blind element adjustment module; the blind element adjustment The module is connected in series between the blind element and the ground terminal corresponding to each column of the pixel array. The blind element adjustment module is a plurality of resistors and switch groups connected in series. The resistor and switch group are a parallel structure of a resistor and a switch. The open/closed state of the switch in the meta-adjustment module determines the resistance value of the blind meta-adjustment module; wherein, the compensation mapping relationship module is used to store the combination of the open/closed state of the switch in the resistance and the switch group and the process condition parameter. Mapping relationship, when the low-noise infrared detector structure is completed, the control interface module receives the process condition parameters, and controls the opening/closing of each resistor and the switches in the switch group according to the mapping relationship.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Low-noise infrared detector structure and testing methods</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CN110529728B</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Device and method for online detection of service life of infrared focal plane detector Dewar flask</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The invention provides a device and a method for online detecting the service life of an infrared focal plane detector Dewar flask, which comprises a vacuum chamber and a plurality of station interfaces connected with the vacuum chamber, and a measuring component connected with one station interface through a measuring exhaust pipe; the other end of the measuring component is provided with a second BA hot cathode gauge which is sequentially connected with a vacuum gauge and a computer. The invention obtains the vacuum degree of a key process parameter by real-time online vacuum detection, and establishes a mathematical model of the useful life of vacuum and the key process parameter by applying the rarefied gas physics and the vacuum technical principle so as to obtain the gas outlet rate of a gas source. The method is beneficial to optimizing the vacuum obtaining process, improving the production efficiency and reducing the production cost, can effectively control the quality parameters of the vacuum obtaining process, and improves the high vacuum heat insulation capability and the reliability of the refrigeration type infrared focal plane detector Dewar component to be detected.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CN111272687B</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A real-time detection device for dangerous gas based on infrared multispectral imaging</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The invention relates to the field of infrared multi-spectral gas detection, and provides a real-time detection device for dangerous gas based on infrared multi-spectral imaging, comprising a first broadband infrared optical lens arranged in sequence along an incident light path of a channel 1, and is provided with n narrow-band infrared optical lenses. A narrow-band filter switching device for filters and stepping motors, a broadband uncooled focal plane detector, a second broadband infrared optical lens arranged in sequence along the incident light path of channel 2, an infrared beam splitter, n Uncooled focal plane detectors with specific wavelength bands, an image processing module connected to each detector, and a control module connected to a stepping motor; the image processing module is used to replace the image output from channel 2 with the image output from channel 1 and Multispectral imaging of the replaced image
+The image B k obtained by multispectral imaging of the image output by channel 1 in one cycle, is
+B k fusion, output image
+The invention can improve the precision and efficiency of dangerous gas detection.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Real-time detection device for dangerous gas based on infrared multispectral imaging</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CN111426398B</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Multicolor large-area-array infrared detector and preparation method thereof</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The application discloses a multicolor large-area array infrared detector and a preparation method thereof, and relates to the field of semiconductor photoelectronics. The detector comprises a detector shell, an optical window, a rotating shaft, a transmission shaft, a roller, a plurality of groups of focal plane chip packaging Dewar devices, a refrigerating device, a fixed shaft, an electric brush, a lens, a signal processing circuit and a display. The utility model provides a focus plane chip encapsulation of different detection wave bands is in different dewars, then arranges the focus plane chip encapsulation dewar device according to certain axial symmetry mode and welds on the axial plane of cylinder, realizes the detection of different wave bands through the rotation of cylinder, finally realizes polychrome infrared detection image imaging. The multi-color packaging method can realize multi-color by embedding and parallel connection of the single-color focal plane chip packaging Dewar device arrays, save process time and realize low cost. In addition, this application polychrome large-area array infrared focal plane detector can also realize different wave band wavelength couplings and signal output according to practical field.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Multicolor detection technology, refrigeration technology</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CN111623891B</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Temperature drift correction circuit and correction method</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The invention discloses a temperature drift correction circuit and a correction method, and relates to the technical field of uncooled infrared focal plane arrays. The temperature drift correction circuit comprises a DAC circuit; the DAC circuit is used for receiving an original signal, performing offset correction and offset temperature drift correction on the original signal and outputting a correction signal; wherein the DAC circuit includes a first DAC circuit and a second DAC circuit having mutually independent correction functions. The circuit simultaneously realizes offset correction and offset temperature drift correction of the original signal, and is simple and easy to realize.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Temperature drift correction circuit and method for uncooled infrared focal plane arrays.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CN111829670B</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Uncooled infrared focal plane array reading circuit</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>This specification provides a non-refrigeration infrared focal plane array readout circuit, readout circuit is including M N array circuit and mirror image circuit, readout circuit still includes: bias voltage generating means for providing dynamic bias voltages to said M x N array circuit and said mirror circuit, respectively, said bias voltage generating means comprising: a sensing resistor, the resistance of which linearly changes with the temperature of the substrate on the readout circuit; and the bias voltage generating module is used for generating dynamic bias voltage related to the resistance value according to preset fixed bias voltage and the resistance value of the sensing resistor so as to provide the dynamic bias voltage for the pixel in the M x N array circuit and two ends of the sensor resistor in the mirror image circuit. Therefore, the influence of the change of the substrate temperature on the response rate of the output voltage of the readout circuit is reduced, and the problem that the output voltage of the uncooled infrared focal plane array detector exceeds the dynamic range at high temperature is solved.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CN111896122B</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Polarization non-refrigeration infrared detector and preparation method thereof</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The application discloses a polarization uncooled infrared detector which comprises a plurality of pixels, wherein each pixel comprises a substrate layer, a first suspension layer and a second suspension layer, the substrate layer is arranged from bottom to top, the first suspension layer is provided with a support and electric connection hole, and the second suspension layer is provided with a support connection hole; the first suspension layer comprises a first supporting layer with a first through hole, a first electrode layer, a heat-sensitive layer and a heat-sensitive protective layer, and the first through hole is positioned at the bottom of the supporting and electric connecting hole so that the first electrode layer is electrically connected with the substrate layer; the second suspension layer comprises a second supporting layer and a wire grid layer, the second supporting layer positioned at the supporting connecting hole is connected with the thermosensitive protective layer, and the supporting connecting hole is positioned at the outer side of the supporting and electric connecting hole. The supporting connection hole is located the outside that supports and electrically connect the hole in this application detector, need not to handle first free layer planarization, and at preparation second free layer in-process, and sculpture thickness can not increase yet when graphical sacrificial layer, simplifies preparation technology, promotes the performance. The application also provides a manufacturing method with the advantages.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Polarization and infrared detection technology</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CN111929864B</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Economical long-wave infrared athermalized gun aiming lens</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The invention relates to the technical field of optical lenses, and discloses an economical long-wave infrared athermalized gun-sight lens which comprises a positive meniscus lens A, a negative meniscus lens B and a positive meniscus lens C which are sequentially arranged from an object space to an image space, wherein the air interval between the positive meniscus lens A and the negative meniscus lens B is 2.56 mm; the air space between the negative meniscus lens B and the positive meniscus lens C is 29.1 mm; the thicknesses of the meniscus positive lens A, the meniscus negative lens B and the meniscus positive lens C are respectively 5.2mm, 2mm and 5 mm. The optical passive design is adopted, a focusing mechanism is not required to be added, the requirements of achromatism and athermalization are met by utilizing the diffraction surface through matching optical lenses made of different optical materials and different parameters, and the optical passive design has the advantages of low cost and high reliability.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Long-wave infrared athermalized gun sight lens; suitable for uncooled long-wave infrared detectors.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CN111929865B</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>High-resolution long-wave uncooled athermalized telephoto lens</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The invention relates to the technical field of optical lenses, and discloses a high-resolution long-wave non-refrigeration athermalized telephoto lens, which comprises a negative meniscus lens A, a positive meniscus lens B, a negative meniscus lens C and a positive meniscus lens D which are sequentially arranged from an object side to an image side of an optical system, wherein one surfaces of the negative meniscus lens A, the positive meniscus lens B, the negative meniscus lens C and the positive meniscus lens D facing the object side are convex surfaces, and one surfaces of the negative meniscus lens A, the positive meniscus lens B, the negative meniscus lens C and the positive meniscus lens D facing the image side are concave surfaces. The optical passive design is adopted, a focusing mechanism is not required to be added, the requirements of focal power, achromatic color and thermal aberration of the system are met by matching optical lenses with different optical materials and different parameters, and compared with the prior art, the optical passive design has the advantages of low cost, high reliability, simple and reliable structure and good manufacturability.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>High-resolution long-wave uncooled athermalized telephoto lens</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CN111947788B</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Infrared detector and preparation method thereof</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>The invention relates to an infrared detector and a preparation method thereof, wherein the infrared detector comprises a plurality of detector pixels which are arranged in an array, and each detector pixel comprises a microbridge detector structure and a metamaterial metal layer; the metamaterial metal layer comprises a plurality of metal repeating units arranged in an array mode, and each metal repeating unit comprises two L-shaped patterned structures arranged diagonally; the infrared absorption spectrum band of the infrared detector is 3-30 microns. Through the technical scheme, the wide-spectrum absorption of the infrared detector is realized, the absorption rate of the infrared detector to the infrared radiation energy of the temperature of the target object is greatly improved, and the infrared detector has high detection sensitivity.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Wide-spectrum absorption optimization</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CN113049115B</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pixel-level packaged uncooled infrared detector and manufacturing method thereof</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The invention provides a pixel-level packaged non-refrigeration infrared detector and a manufacturing method thereof, wherein the non-refrigeration infrared detector comprises a reading circuit, an MEMS device positioned on the reading circuit and a pixel packaging cover cap covered and sealed on the MEMS device, the MEMS device comprises a metal reflector, a bridge deck, a bridge pillar and a first bridge leg, the metal reflector is arranged on the upper surface of the reading circuit, the bridge deck is suspended and positioned right above the metal reflector, the bridge pillar is positioned on the side edge of the bridge deck and supported on the reading circuit and electrically connected with the reading circuit through electric contact metal, the first bridge leg is connected between the bridge deck and the bridge pillar, the MEMS device further comprises a second bridge leg which is connected with the bridge pillar and extends outwards, a release hole is formed in the pixel packaging cover cap, the second bridge leg extends to the position below the release hole, a sealing film layer for sealing the release hole is arranged at the release hole, and the sealing film layer is stacked on the second bridge leg. The invention can reduce the process difficulty of growth of the sealing film layer.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Pixel-level packaging technology, MEMS device design</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CN113390513B</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>A three-layer pixel structure of a microbolometer</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A three-layer pixel structure of a microbolometer includes a light absorption layer, a heat-sensitive layer, an electrode layer and its substrate. An optical resonant cavity is formed between the light absorption layer and the thermosensitive layer, and is connected by a hollow bridge column to reduce the heat capacity of the microbridge. The thermal layer maximizes the thermistor layer to increase the absorption rate of infrared transmitted light, and the electrode layer bends the electrode bridge legs from both ends to increase the length of the bridge legs and reduce thermal conductivity. The heat-sensitive layer and the electrode layer are both covered with passivation layers, and the electrode bridge legs are respectively connected with the thermistor layer and the substrate to realize electrical and thermal communication. While taking into account the time response constant, the invention has higher infrared absorption rate and lower thermal conductivity, effectively improves the temperature rise of the pixel, and has higher temperature response rate and thermal sensitivity.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>High thermal sensitivity and infrared absorption rate, optimization of thermal response time.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CN114137699B</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Small high-resolution athermalized medium-wave infrared optical system</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The invention relates to the technical field of infrared optical systems, in particular to a small high-resolution athermalized medium-wave infrared optical system. The structure form of secondary imaging is adopted, the secondary imaging component can compress the caliber of a front group lens, the 100% cold diaphragm efficiency is met, a germanium-based diffraction element is used, the structure is greatly simplified, the effective caliber of a first lens is 38mm, the absolute length is 170mm, better imaging quality can be achieved, the system comprises a front group and a rear group, the front group comprises 4 lenses, the rear group comprises 3 lenses, the materials of the lenses are all common materials of silicon and germanium of an infrared optical system, athermalization in the temperature range of-30 ℃ to +60 ℃ is achieved through the matching of different materials and the matching of a conventional lens and a diffraction element, and the focal length of the optical lens is 150mm and the F number is 4. The lens is suitable for a high-resolution 1280 multiplied by 1024 medium wave refrigeration detector; the imaging device has the characteristics of compactness, small volume, no thermalization, high resolution and the like, and has good imaging quality in the whole temperature range.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Medium-wave infrared optical system, thermal imaging, athermalization.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CN211651829U</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Non-refrigeration infrared circuit for adjusting MEMS process deviation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The utility model provides a non-refrigeration infrared circuit for adjusting MEMS process deviation, the bias circuit comprises a plurality of bias branches, each bias branch comprises a first NMOS tube and a first PMOS tube with GSK grid input blind cell bias voltage, the drain electrode of each first PMOS tube is electrically connected with the drain electrode of the first NMOS tube of the same bias branch, the source electrode of each first NMOS tube is electrically connected with the input end of an RREF control circuit, the RREF control circuit comprises a plurality of RREF control branches, each RREF control branch comprises a RREF resistor and a second NMOS tube serving as a branch switch, the drain electrode of each second NMOS tube is electrically connected with the output end of the bias circuit through one RREF resistor, the grid electrode of each first PMOS tube is electrically connected with the grid electrode of the second PMOS tube, the grid electrode of each first NMOS tube is electrically connected with the grid electrode of the third NMOS tube, and the drain electrode of the second PMOS tube and the drain electrode of the third NMOS tube are electrically connected with the negative input end of the integrating circuit.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Infrared circuit design for MEMS process deviation adjustment</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CN211824766U</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Photoelectric sensing detection device for weakening pixel mismatch influence</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>The utility model relates to a photoelectric sensing detection device of weakening pixel mismatch influence, found biasing circuit module 101, subtraction circuit module 102, first current mirror DAC module 103, second current mirror DAC module 104, integral amplification circuit module 105, through the relation of connection between each circuit module, found final uncooled photoelectricity focal plane array read-out circuit, can weaken pixel mismatch influence, low circuit noise has, strong adaptability's advantage, can realize pixel mismatch correction function, improve photoelectric detection's precision.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CN212082732U</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hardware device for implementing a gas leak monitoring system for uncooled detectors</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The utility model relates to a hardware device for realizing a gas leakage monitoring system of an unrefrigerated detector, comprising: an infrared lens, which is used for collecting and imaging infrared radiation in a monitoring scene to form an infrared light signal. The infrared filter module is connected with the infrared lens, and is used for acquiring the infrared light signal of the gas whose infrared absorption band is a specific wavelength band as the target infrared light signal. The uncooled detector is connected to the infrared filter module and is used to convert the target infrared light signal into an electrical signal. A data processing module, connected with the uncooled detector, is used to convert the electrical signal into video data and/or image data. The computer, connected with the data processing module, is used for processing the video data and/or image data, and displaying the processed result as the monitoring result. The technical scheme provided by the utility model can improve the identification accuracy and response speed of gas leakage, improve the monitoring efficiency and improve the operability.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Hardware device for gas leakage monitoring system</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CN213924891U</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Visual monitoring device and visual monitoring system suitable for smelting reduction furnace</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The application provides a visual monitoring device and a visual monitoring system suitable for a smelting reduction furnace. The monitoring device comprises a device body, a sealing assembly, a monitoring assembly, a loading and unloading valve, a blowing assembly, a cooling assembly and the like, wherein the device body is provided with an accommodating cavity; the sealing assembly is arranged at the top of the accommodating cavity and comprises a high-temperature-resistant sealing ring for sealing the accommodating cavity; the monitoring assembly is arranged at the bottom of the inner side of the accommodating cavity and comprises a thermal imager for monitoring the condition in the melting reduction furnace; the loading and unloading valve sleeve is arranged at the upper part of the accommodating cavity to install or disassemble the monitoring assembly; the blowing assembly is arranged below the loading and unloading valve and comprises a blowing pipeline communicated with the containing cavity so as to blow gas into the containing cavity; the cooling assembly is sleeved outside the accommodating cavity and comprises a cooling liquid circulating pipeline for cooling the monitoring assembly; the fixing member is fitted over the outside of the cooling block to fix the monitoring device to the smelting reduction furnace. The monitoring device can adapt to the severe environment in the SRV furnace, acquire images in the SRV furnace in the production process and monitor the conditions in the furnace.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Thermal imaging technology for monitoring high-temperature environments.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CN214334041U</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Response wave band selectable uncooled infrared detector</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>This patent discloses a response optional uncooled infrared detector of band. The device directly adopts a silicon-based CMOS reading circuit as a substrate, and can realize monolithic integration. The manganese-cobalt-nickel-oxygen thermistor film with broadband response characteristics is selected as the infrared absorption layer, a novel detector structure without a traditional microbridge is adopted, bridge deck collapse risks possibly faced by the microbridge structure do not exist, the yield is improved, the preparation cost is reduced, and full-waveband response can be realized. On the basis, by combining the cyclic switching of the band-pass filters of the three atmospheric windows and performing algorithm processing such as addition, subtraction, fusion and the like on signal data of different wave bands, the single-wave band, double-wave band, three-wave band and full-wave band detection functions are realized, richer target information can be obtained, the imaging contrast is improved, and the target identification capability is improved. The device and the preparation method thereof have mature process, are compatible with the standard silicon integrated circuit process, and are suitable for unit, line and area array infrared detectors.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Technology focuses on broad spectrum detection with selectable response bands and low-cost uncooled infrared detectors.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CN215811257U</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Refrigeration type infrared core equipment with high performance and small volume</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The utility model discloses a refrigeration type infrared machine core device with high performance and small volume, which comprises: the refrigeration detector comprises a refrigeration detector body and a refrigerator arranged on the rear side of the refrigeration detector body, wherein a fixed framework is arranged on the periphery of the refrigeration detector body, a front circuit board is arranged on the front portion of the fixed framework, a circuit board is arranged on the side face of the fixed framework, a top circuit board is arranged on the top face of the fixed framework, an interface circuit board is arranged at the position of a refrigerator interface of the refrigerator, the top circuit board and the side circuit board are both connected with the interface circuit board, and the front circuit board is connected with a signal needle of the refrigeration detector body. The overall dimension of the refrigeration type infrared movement equipment with high performance and small volume does not exceed the maximum overall dimension of the detector; enough circuit board layout area is reserved, and hardware with better performance is selected, so that the overall performance is better; the focal plane position is supported by the fixed frame, so that the focal plane shaking caused by external vibration is avoided, and the imaging effect is ensured.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Performance improvement regarding noise reduction and imaging stability in refrigeration type infrared detectors.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CN217786356U</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Uncooled infrared core with good heat dissipation effect</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The utility model discloses a non-refrigeration infrared core that radiating effect is good, including infrared camera lens subassembly, non-refrigeration detector, detector support, center and circuit board assembly, infrared camera lens subassembly is fixed in on the detector support, non-refrigeration detector is installed in the detector support, circuit board assembly passes through the center with detector support fixed connection, be equipped with heat dissipation mechanism on the center, heat dissipation mechanism is including setting up the air inlet frame of center outer wall one side, the outer wall opposite side of center is equipped with the air-out frame. Has the advantages that: the heat dissipation electric fan is designed in the sound-proof housing, the heat dissipation electric fan timely dissipates heat to the air more quickly, the purpose of heat dissipation is achieved, the heat dissipation problem of the existing non-refrigeration infrared movement is solved, the imaging quality of the infrared movement is improved, the service life of the infrared movement is prolonged, and in the heat dissipation process, the designed sound-proof housing can reduce noise generated in the working process of internal electric appliances.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Heat dissipation optimization</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CN219416452U</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Uncooled infrared focal plane detector</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>The application provides an uncooled infrared focal plane detector. The uncooled infrared focal plane detector comprises a shell, a light-transmitting window, an uncooled infrared focal plane detector unit and an infrared shielding piece. The housing has a bottom wall and a side wall. The light-transmitting window is arranged on one side of the side wall, which is away from the bottom wall, and forms a sealed accommodating space with the shell. The uncooled infrared focal plane detector unit is arranged in the accommodating space and comprises a substrate with an integrated circuit, an effective pixel array and a reference pixel array, wherein the effective pixel array and the reference pixel array are arranged on the substrate; the reference pixel array is arranged on at least one side of the effective pixel array and is arranged at intervals with the effective pixel array; the infrared shielding piece is arranged between the reference pixel array and the light-transmitting window, and the uncooled infrared focal plane detector is used for effectively eliminating the effective pixel array by arranging the infrared shielding piece between the light-transmitting window and the reference pixel, so that the accuracy of data acquired by the effective pixel array under the irradiation of external light is improved, and the performance of the uncooled infrared focal plane detector is improved.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CN221527827U</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lens temperature control switching device</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The utility model discloses a lens temperature control switching device, which comprises a lens component and a control component; the control component comprises a main processor and a coprocessor; the lens assembly comprises an infrared thermopile array sensor, a conventional infrared lens, a high-temperature attenuation lens, an infrared thermal imaging shutter and an uncooled infrared detector, and the high-temperature attenuation lens and the uncooled infrared detector are driven by a lens switching motor and a detector position fine adjustment motor respectively; the main processor is electrically connected with the infrared thermal imaging shutter and the uncooled infrared detector respectively; the coprocessor is electrically connected with the lens switching motor, the detector position fine-tuning motor and the infrared thermopile array sensor respectively. The utility model integrates the conventional infrared lens and the high-temperature attenuation lens internally, adopts the same lens component, can meet the requirements of scenes such as high image quality, high-temperature wide measurement range, ultra-high temperature measurement and the like in normal temperature sections, does not need a user to exchange the lens or the lens by himself, and is suitable for use in temperature measurement application scenes with urgent time.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Lens temperature control switching device</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CN222545567U</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A low-cost, lightweight, compact, high-resolution common-aperture dual-band cooling optical system</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A low-cost light-small high-resolution common-aperture dual-band refrigerating optical system is characterized in that a first lens, a second lens, a third lens, a fourth lens, detector protection glass, a cold diaphragm and a detector photosensitive surface are sequentially arranged from outside to inside in the light propagation direction. The first lens, the second lens, the third lens, the fourth lens, the detector protection glass, the cold diaphragm and the photosensitive surface of the detector are coaxially arranged. The optical system is used for receiving the inherent infrared radiation of the target and the background, converging the infrared radiation on the photosensitive surface of the medium/long wave dual-band refrigeration detector, realizing photoelectric conversion, having higher sensitivity and smaller spatial resolution, acquiring the radiation characteristic of the target in the medium/long wave under night or complex meteorological conditions, realizing a high-performance imaging system, and fully utilizing the detection advantages and complementarity of different spectral bands to detect, identify and accurately position the target in the complex environment.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Common-aperture dual-band refrigeration optical system, high-resolution imaging system</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CN222927491U</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Non-refrigeration packaging detector BGA tube shell output interface</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>The utility model provides a BGA tube shell output interface of an uncooled packaged detector, comprising: a ceramic tube shell, a square window, a square window bracket, a chip and an FPC cable, wherein the chip is arranged in the ceramic tube shell, the window bracket is arranged on the ceramic tube shell, the window is arranged on the window bracket, and the FPC cable is welded to the circuit pad at the bottom of the ceramic tube shell to form a path. The utility model designs the ceramic tube shell for the uncooled focal plane detector into a BGA form, and designs a BGA array at the bottom of the tube shell, thereby greatly increasing the number of output PADs, avoiding interconnection between the same output PADs, and reducing mutual interference between signals.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>BGA tube shell output interface for uncooled packaging detector</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EP3586504B1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Low cost and high performance bolometer circuitry and methods</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Low cost and high performance bolometer circuitry and methods</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EP3620814A1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Device, system, and method of aircraft protection and countermeasures against threats</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Device, system, and method of aircraft protection and countermeasures against threats. A system for protecting an aircraft against a threat, includes a dual frequency Radio Frequency (RF) module, which includes: a dual-band RF transmitter and a dual-band RF receiver, to transmit and receive high-band RF signals and low-band RF signals; and a threat confirmation and tracking module, to confirm and track a possible incoming threat based on processing of high-band RF signals and low-band RF signals received by the dual-band RF receiver. The system further includes a dual frequency band antenna, to transmit and receive the high-band RF signals and the low-band RF signals. The system also includes a directed high-power laser transmitter, to activate a directed high-power laser beam as countermeasure towards a precise angular position of a confirmed threat.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Direct Infrared Countermeasures (DIRCM) systems for aircraft protection against threats.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EP3655807B1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Two-color inverse telephoto refractive optical form with external pupil for cold shielding</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Dual-band infrared optical imaging system</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EP4310436B1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Dual band gun-sight calibrator</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Performance Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EP4425130A1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Uncooled infrared polarization detection pixel structure, chip, and detector</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>An uncooled infrared polarization detection pixel structure, a chip, and a detector. By setting a light-passing region of a grating layer to a regular polygon corresponding to a polarization direction, it can be ensured that gratings (111) in the light-passing region that correspond to different polarization directions have the same shape except for the different polarization directions, thereby ensuring that the grating layer has the same transmission efficiency for incident light of multiple preset polarization directions. By setting a pixel layer to a regular polygon corresponding to a light-transmissive region, and providing absorption units (8) on the surface of the pixel unit, the influence of a polarization-selective absorption characteristic caused by an electrode (71) in the pixel layer can be eliminated, so that the light absorption of infrared detection pixels is insensitive to polarization, thereby ensuring that the response of the pixel layer to light in different polarization directions is consistent, and avoiding the problem of response non-uniformity.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Infrared polarization detection technology</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>US10274376B2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>System for testing thermal response time of uncooled infrared focal plane detector array and method therefor</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A system for testing thermal response time of an uncooled infrared focal plane detector array and a method therefor is provided. The system comprises: a blackbody, a chopper, a detector unit under test and a testing system. The method comprises: emitting radiation by the blackbody, chopping by the chopper, then radiating the radiation to the uncooled infrared focal plane detector array under test; generating different responses on the radiation at different chopping frequencies by the uncooled infrared focal plane detector array under test; collecting different response values of the uncooled infrared focal plane detector array under test at different chopping frequencies; obtaining response amplitude at a corresponding frequency in a frequency domain by FFT; fitting according to a formula
+Rv
+⁡
+(
+f
+)
+=
+Rv
+⁡
+(
+0
+)
+1
++
+(
+2
+⁢
+π
+⁢
+⁢
+f
+⁢
+⁢
+τ
+)
+2
+to obtain the thermal response time.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Testing thermal response time of uncooled infrared focal plane detector array</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>US10298817B1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Reduce multispectral IR sensor power usage</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>An optical system recycles heat from a cooler coupled with an image sensor across a heat transfer element in order to warm and de-ice a window. The optical system may be implemented in high altitude or space vehicles/platforms, regardless of whether manned or unmanned, and the window may be outwardly facing relative to the vehicle/platform so at to allow electromagnetic radiation to pass therethrough onto the image sensor. The optical system enables the reduction of size, weight, and power by recycling heat exhausted from the cooler to warm the window, thus eliminating the need for a separate de-icing system or device for the window.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Optical system for recycling heat to warm and de-ice a window.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>US10337927B1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Germanium tin oxide thin films for uncooled infrared detectors</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Microbolometer is a class of infrared detector whose resistance changes when the temperature changes. In this work, we deposited and characterized Germanium Oxide thin films mixed with Sn (Ge—Sn—O) for uncooled infrared detection. Ge—Sn—O were deposited by co-sputtering of Sn and Ge targets in the Ar+O environment using a radio frequency sputtering system. Optical characterization shows that the absorption in Ge—Sn—O was most sensitive in the wavelength ranges between 1.0-3.0 μm. The transmission data was further used to determine the optical energy band gap (0.678 eV) of the thin-film using Tauc's equation. We also found the variations of absorption coefficient (1.4802×105 m-1-1.0097×107 m−1), refractive index (1.242-1.350), and the extinction coefficient (0.3255-8.010) for the wavelength ranges between 1.0-3.0 μm. The thin film's resistivity measured by the four point probe was found to be 4.55 Ω-cm and TCR was in the range of −2.56-−2.25 (%/K) in the temperature range 292-312K. In light of these results it can be shown that this thin film is in keeping with the current standards while also being more cost and time effective.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Improvement of sensitivity in microbolometers</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>US10520364B2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Thermal protection mechanisms for uncooled microbolometers</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Methods and apparatus for preventing solar damage, and other heat-related damage, to uncooled microbolometer pixels. In certain examples, a thermochroic membrane that becomes highly reflective at temperatures above a certain threshold is applied over at least some of the microbolometer pixels to prevent the pixels from being damaged by excessive heat.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Thermal protection mechanisms for uncooled microbolometers.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>US10520448B2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Method and system for detecting abnormalities in coated substrates</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Provided is a detection system for detecting abnormalities in a coated substrate having a coating and a substrate, and including a detection device that includes a housing configured to block external sources of light from impinging on the coated substrate, a light source array including a plurality of light sources and configured to be arranged to direct light upon the coated substrate, an optical imaging system configured to capture a video data stream and still images of the coating and an underlying surface of the substrate including structure features comprising any abnormalities in the coated substrate, an on-board embedded system to control the light source array and the optical imaging system and perform real-time processing to correct spatial and temporal variations in intensity of the plurality of light sources of the light source array, and spatial and temporal variations in sensitivity and optical Narcissus effect of the optical imaging system.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Method for detecting abnormalities in coated substrates.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>US10704959B2</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Germanium silicon tin oxide thin films for uncooled infrared detection</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Microbolometer is a class of infrared detector whose resistance changes with temperature change. In this work, we deposited and characterized Germanium Silicon Oxide thin films mixed with Sn (Ge—Si—Sn—O) for uncooled infrared detection. Ge—Si—Sn—O were deposited by co-sputtering of Sn and Ge—Si targets in the Ar+O environment using a radio frequency sputtering system. Optical characterization shows that the absorption in Ge—Si—Sn—O was most sensitive in the wavelength ranges between 2.5-3.7 μm. The transmission data was further used to determine the optical energy band gap (0.22 eV) of the thin-film using Tauc's equation. We also found the variations of absorption coefficient (6592305.87 m−1-11615736.95 m−1), refractive index (2.5-4.0), and the extinction coefficient (2.31-5.73) for the wavelength ranges between 2.5-5.5 μm. The thin film's resistivity measured by the four-point probe was found to be 142.55 Ω-cm and TCR was in the range of −4.9-−3.1 (%/K) in the temperature range 289-325K.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Microbolometer, Thin film materials for infrared detection</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>US10777696B1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>High absorption infrared superlattices</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A ternary superlattice structure includes a substrate and periodic layer structure on the substrate and having alternating infrared absorbing semiconductor materials having a first layer of InAs[1-x]Sb[x] ternary alloy material, and a second layer of In[1-y]Z[y]As ternary alloy material, wherein Z is Ga or Al, wherein x is in a range of greater than zero and less than one, wherein y is in a range of greater than zero and less than one, and wherein a thickness of each of the first and second layers are substantially similar and configured to absorb light in a predetermined spectral band and prevent trapping of carriers in any particular layer. In examples, y is in a range from about 0.05 to about 0.35, and x is in a range of about 0.2 to about 0.8.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>US10840399B1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Germanium tin oxide thin films for uncooled infrared detection</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Microbolometer is a class of infrared detector whose resistance changes when the temperature changes. In this work, we deposited and characterized Germanium Oxide thin films mixed with Sn (Ge—Sn—O) for uncooled infrared detection. Ge—Sn—O were deposited by co-sputtering of Sn and Ge targets in the Ar+O environment using a radio frequency sputtering system. Optical characterization shows that the absorption in Ge—Sn—O was most sensitive in the wavelength ranges between 1.0-3.0 μm. The transmission data was further used to determine the optical energy band gap (0.678 eV) of the thin-film using Tauc's equation. We also found the variations of absorption coefficient (1.4802×105 m−1-1.0097×107 m−1), refractive index (1.242-1.350), and the extinction coefficient (0.3255-8.010) for the wavelength ranges between 1.0-3.0 μm. The thin film's resistivity measured by the four point probe was found to be 4.55 Ω-cm and TCR was in the range of −2.56-−2.25 (%/K) in the temperature range 292-312K. In light of these results it can be shown that this thin film is in keeping with the current standards while also being more cost and time effective.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Microbolometer technology, Ge—Sn—O thin films for infrared detection</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>US10909670B2</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Computational reconfigurable imaging spectrometer</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hyperspectral imaging spectrometers have applications in environmental monitoring, biomedical imaging, surveillance, biological or chemical hazard detection, agriculture, and minerology. Nevertheless, their high cost and complexity has limited the number of fielded spaceborne hyperspectral imagers. To address these challenges, the wide field-of-view (FOV) hyperspectral imaging spectrometers disclosed here use computational imaging techniques to get high performance from smaller, noisier, and less-expensive components (e.g., uncooled microbolometers). They use platform motion and spectrally coded focal-plane masks to temporally modulate the optical spectrum, enabling simultaneous measurement of multiple spectral bins. Demodulation of this coded pattern returns an optical spectrum in each pixel. As a result, these computational reconfigurable imaging spectrometers are more suitable for small space and air platforms with strict size, weight, and power constraints, as well as applications where smaller or less expensive packaging is desired.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Computational imaging, spectrometer technology, miniaturization in hyperspectral imaging.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>US11009399B2</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Methods for classification of a gas compound in a gas leak</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A method and a system for classifying at least one individual gas compound from a plurality of leaked gases in a specified field of view are provided herein. The method may include the following steps: generating, by a cryogenically cooled detector and using a first of at least n filters, multiple spectral band images of the specified view in spectral bands coinciding with said leaking gases spectral bands in which said leaking gases emit and absorb electromagnetic radiation; calculating from the images, the relative absorption response of said gases in each of said filters, respectively; calculating a set of predetermined coefficients; normalizing said relative absorption responses to the sum of relative responses of said filters; and calculating the weighted average molecular mass of said gas compound of said leaking gases.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Methods for gas leak classification</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>US11044423B2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mobile gas and chemical imaging camera</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>In one embodiment, an infrared (IR) imaging system for determining a concentration of a target species in an object is disclosed. The imaging system can include an optical system including an optical focal plane array (FPA) unit. The optical system can have components defining at least two optical channels thereof, said at least two optical channels being spatially and spectrally different from one another. Each of the at least two optical channels can be positioned to transfer IR radiation incident on the optical system towards the optical FPA. The system can include a processing unit containing a processor that can be configured to acquire multispectral optical data representing said target species from the IR radiation received at the optical FPA. Said optical system and said processing unit can be contained together in a data acquisition and processing module configured to be worn or carried by a person.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Portable and wearable gas detection system</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>US11099077B1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Background subtracted spectrometer for airborne infrared radiometry</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A background subtracted spectrometer for airborne infrared radiometry. The background subtracted spectrometer may comprise: a filter array, a detector, and a dewar containing liquid nitrogen. The filter array may be configured to selectively pass different spectral bands of infrared radiation. The filter array may comprise: at least one linear variable filter and a plurality of bandpass filters. The detector may comprise a focal plane array configured to receive the different spectral bands of infrared radiation simultaneously transmitted through the filter array. The detector may generate one or more electrical signals indicative of infrared radiation intensity as a function of wavelength. The filter array may be coupled to the focal plane array of the detector, and the filter array and detector may be conductively cooled by the liquid nitrogen to improve signal-to-noise ratio and spectral measurements. The background subtracted spectrometer preferably lacks a circular variable filter and relay lens.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Cooling technology using liquid nitrogen.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>US11118981B2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Frequency-selective metasurface integrated uncooled microbolometers</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A metasurface integrated microbolometer having a sensing layer (e.g., SixGeyO1-x-y). The presence of the metasurface provides selectivity with respect to wavelength, polarization and angle-of-incidence. The presence of the metasurface into the microbolometer affects conversion of electromagnetic to thermal energy, thermal response, electrical integration of the microbolometer, and the tradeoff between resistivity and temperature coefficient of resistance, thereby allowing the ability to obtain a sensing with high temperature coefficient of resistance with lower resistivity values than that of films without the metasurface. The presence of the metasurface removes the need for a Fabry-Perot cavity.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Integration of metasurface technology into uncooled microbolometers for enhanced performance.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>US11125623B2</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Satellite onboard imaging systems and methods for space applications</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Satellite onboard imaging systems having a look-down view and a toroidal view of the Earth are disclosed. In one embodiment, a satellite onboard imaging systems include an infrared sensing system and a controller. The infrared sensing system includes a first imager configured to have a first field of view that observes a look-down view of the Earth from a satellite and a second imager configured to have a second field of view that observes a toroidal view of the Earth centered at the satellite. The controller is coupled to the first imager and the second imager and operable to process image data from the first imager and the second imager. The controller is further operable to output indications of thermal energy of an identical, or different objects based on the first thermal image signal, the second thermal image signal, or both.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Infrared sensing systems for space applications.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>US11125625B2</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Microbolometer readout circuit and calibration method using the same</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A microbolometer read-out circuit includes an extraction circuit configured to detect a voltage signal of a temperature variation; an analog-to-digital converter coupled to the extraction circuit and configured to digitalize the voltage signal of the temperature variation; an image processing circuit coupled to the analog-to-digital converter; and wherein the image processing circuit is coupled to a gain digital-to-analog converter and an offset digital-to-analog converter.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Calibration method for compensating temperature variations in microbolometers.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>US11187879B2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>High magnification MWIR continuous zoom system</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A high magnification MWIR continuous zoom optical system is described herein that consists of the following components: a front detachable extender group, a fixed group for focusing incoming radiation, three moving groups for zooming and generating an intermediate image and a relay group. The mentioned optical system has the ability to work with MWIR radiation (3-5 μm) and generate a thermal image from the gathered radiation. The system also has the ability to zoom continuously in a wide variable focal length range with a high magnification ratio of 20×. With the use of a cooled detector, the combined system allows its user to be able to receive high quality thermal images in all FOV configurations.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>High magnification MWIR continuous zoom optical system</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>US11215425B2</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Method for determining characteristic-curve correction factors of a matrix detector that images in the infrared spectral range, method for controlling a guided missile and guided missile</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>The invention relates to a method for determining characteristic-curve correction factors a matrix detector that images in the infrared spectral range. A good image correction can be obtained by virtue of an area of homogeneous temperature being recorded at two different temperatures by the matrix detector, there being two images with different integration times for each temperature. A signal gradient over the integration time is established for each of the pixels from the four pixel values at the two temperatures in each case and the gain being established from the difference of the signal gradients and characteristic-curve correction factors for the gain being stored.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Method for determining characteristic-curve correction factors.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>US11287409B2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hydrogen sulfide imaging system</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Various embodiments disclosed herein describe an infrared (IR) imaging system for detecting a gas. The imaging system can include an optical filter that selectively passes light having a wavelength in a range of 1585 nm to 1595 nm while attenuating light at wavelengths above 1600 nm and below 1580 nm. The system can include an optical detector array sensitive to light having a wavelength of 1590 that is positioned rear of the optical filter.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Detection of gas cloud and its spectral signatures, specifically concerning hydrogen sulfide (H2S).</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>US11371888B2</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Microbolometer apparatus, methods, and applications</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A polarization and color sensitive pixel device and a focal plane array made therefrom. Each incorporates a thick color/polarization filter stack and microlens array for visible (0.4-0.75 micron), near infrared (0.75-3 micron), mid infrared (3-8 micron) and long wave infrared (8-15 micron) imaging. A thick pixel filter has a thickness of between about one to 10× the operational wavelength, while a thick focal plane array filter is on the order of or larger than the size or up to 10× the pitch of the pixels in the focal plane array. The optical filters can be precisely fabricated on a wafer. A filter array can be mounted directly on top of an image sensor to create a polarization camera. Alternatively, the optical filters can be fabricated directly on the image sensor.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>microbolometer, optical filters, polarization camera</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>US11448555B2</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Non-destructive, in-situ evaluation of water presence using thermal contrast and cooled detector</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Exemplary systems for detecting water include: a light source positioned to transmit thermal radiation through a sample; a lens assembly positioned to: receive the thermal radiation transmitted through the sample; and focus the transmitted thermal radiation onto a filter positioned between the lens assembly and a detector; and a cooling subsystem for cooling the filter and the detector to a temperature below that of the sample. Methods for detecting presence of water in a sample are also disclosed.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Non-destructive evaluation of water presence systems</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>US11598672B2</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Plasmonically enhanced, ultra-sensitive bolometric mid-infrared detector</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>The present invention features a novel design for a bolometric infrared detector focused on LWIR range for human body high-resolution temperature sensing. The present invention incorporates an efficient plasmonic absorber and VO2 nanobeam to facilitate improvement in both aspects—thermal resolution and spatial resolution. The present invention significantly improves the detectivity, NETD, and responsivity for a smaller form-factor detector active area.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>US11614365B1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Luminescent cold shield paneling for infrared camera continuous non-uniformity correction</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A luminescent diode surface within the cold shield of an infrared camera to allow for continuous non-uniformity correction with uniform irradiance across an infrared IR detector array. Further provided by the inclusion of a luminescent diode surface within the cold shield paneling is the ability to change the diode bias providing a negative luminescent effect while utilizing reverse bias and an electro-luminescent effect while utilizing a forward bias. This may then further allow for multiple set points to provide continuous offset and gain correction and to correct non-linear response effects.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Continuous Non-Uniformity Correction (NUC)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>US11635244B2</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Cryocooler controller systems and methods</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Techniques are disclosed for systems and methods to control operation of a cryocooler/refrigeration system to provide cryogenic and/or general cooling of a device or sensor system. A cryocooler controller includes a motor driver controller configured to generate motor driver control signals based on operational parameters corresponding to operation of a cryocooler controlled by the controller, and a motor driver configured to generate corresponding drive signals to drive a motor of the cryocooler. The motor driver includes a first stage with a first pair of switches coupled serially between an input of the motor driver and a ground of the motor driver, a second pair of switches coupled serially between an output of the first stage and the ground of the motor driver, and an inductor coupled between the first and second pairs of switches, where operation of each switch is independently controlled by the motor driver control signals.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cryocooler controller technology and cooling methods.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>US11704886B2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Coded light for target imaging or spectroscopic or other analysis</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Modulation-encoded light, using different spectral bin coded light components, can illuminate a stationary or moving (relative) target object or scene. Response signal processing can use information about the respective different time-varying modulation functions, to decode to recover information about a respective response parameter affected by the target object or scene. Electrical or optical modulation encoding can be used. LED-based spectroscopic analysis of a composition of a target (e.g., SpO2, glucose, etc.) can be performed; such can optionally include decoding of encoded optical modulation functions. Baffles or apertures or optics can be used, such as to constrain light provided by particular LEDs. Coded light illumination can be used with a focal plane array light imager receiving response light for inspecting a moving semiconductor or other target. Encoding can use orthogonal functions, such as an RGB illumination sequence, or a sequence of combinations of spectrally contiguous or non-contiguous colors.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Optoelectronics and Imaging</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Spectroscopy and Imaging Techniques</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Coded Light Systems for Target Analysis and Imaging</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>coded light, spectral bin, illumination, imaging, modulation encoding, LED spectroscopy, optical modulation, target analysis, Focal Plane Array (FPA), signal processing, spectral imaging</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Systems, devices, and methods for using coded light for target imaging or analysis, including novel approaches in spectral measurement and analysis techniques using LEDs; applications in blood oxygen saturation, glucose measurement, and semiconductor inspections.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>US11774289B2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Micro-electromechanical system (MEMS) interferometer for FT-MIR spectroscopy</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A microelectromechanical (MEMS) interferometer is provided. The MEMS interferometer includes a pair of movable mirrors that are positioned along perpendicular axes, wherein each of the pair of movable mirrors is coupled to a mechanism. The mechanism includes an electrostatic actuator driving a displacement amplification mechanism, and the displacement amplification mechanism driving each of the pair of the movable mirrors. The MEMS interferometer includes a beam splitter that is positioned at an intersection of the perpendicular axes extending through each movable mirror and the beam splitter. The MEMS interferometer also includes a metasurface microbolometer placed in line with the beam splitter to measure an intensity of a recombined beam from the pair of movable mirrors.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Uncooled microbolometer for mid-IR spectroscopy using MEMS technology.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>US11788893B1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nanoscale bolometer operating near the thermodynamic limit</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A nanoscale bolometer for infrared (IR) thermal imaging comprises a subwavelength antenna that provides a specific detectivity approaching a fundamental, thermodynamic limit. The uncooled nanobolometer achieves performance comparable to cooled, high-performance, semiconductor photodetectors, but with significantly reduced size, weight, power, and cost.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Nanoscale bolometer for infrared thermal imaging</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>US11889223B2</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Explosively welded cooled infrared camera</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A cooled infrared camera includes a window housing comprising a plate having an opening, a window positioned in the opening of the plate, a first sidewall having a first end connected to the plate, a first flange connected to a second end of the first sidewall such that the first sidewall is between the plate and the first flange, a first explosively welded joint between the plate and the first sidewall, and a second explosively welded joint between the first sidewall and the first flange. A header is connected to the first flange of the window housing, and a warm end is connected to the header. The cooled infrared camera further includes a hermetically sealed chamber within the window housing and the header.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Explosive welding technology in cooling infrared cameras</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>US11901389B2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Infrared sensor and imaging apparatus</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>An infrared sensor including: a detection substrate that includes a first substrate in which infrared detection elements are arranged in a lattice shape and first terminals each of which is associated with one of the infrared detection elements are arranged; a readout substrate that includes a second substrate in which second terminals each of which is associated with one of the first terminals are arranged and a readout circuit that reads an electrical signal based on infrared light detected by each one of the infrared detection elements is formed; and bumps that electrically connect each one of the first terminals to one of the second terminals associated with the one of the first terminals, in which at least one of the first terminals, the second terminals, or the bumps is partially arranged at a position between the infrared detection elements that are adjacent in a top view.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cooled infrared sensor design and structure.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>US11988599B2</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Miniature FT-MIR using a MEMS interferometer with a metasurface emitter and detector</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A miniature Fourier transform mid-infrared (FT-MIR) spectrometer is provided. The FT-MIR includes a metasurface IR source to emit radiation when heated, a microelectromechanical (MEMS) interferometer, and a metasurface microbolometer to measure an interferogram from the MEMS interferometer, wherein the miniature FT-MIR spectrometer is less than about 20 mm in outer diameter.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Miniature FT-MIR spectrometer for downhole applications.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>US12057465B2</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Superlattice-based detector systems and methods</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Techniques are disclosed for facilitating detection of electromagnetic radiation using superlattice-based detector systems and methods. In one example, an infrared detector includes a first superlattice structure including first periods. Each of the first periods includes a first sub-layer and a second sub-layer adjacent to the first sub-layer. The first and second sub-layers include first and second semiconductor materials. The infrared detector further includes a second superlattice structure disposed on the first superlattice structure. The second superlattice structure includes second periods. Each of the second periods includes a third sub-layer and a fourth sub-layer adjacent to the third sub-layer. The third-sub-layer includes a third semiconductor material. The fourth sub-layer includes a fourth semiconductor material. A p-n junction is formed at an interface within the second superlattice structure or at an interface between the first and second superlattice structures.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Superlattice-based detector systems and methods</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>US12328489B2</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Imaging method and device</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A remote temperature detector system comprises a reference thermal mass; a temperature sensor in thermal contact with the reference thermal mass for monitoring temperature thereof and generating temperature signals indicative of the monitored temperature; an infrared detector for detecting infrared radiation emitted by an external object and generating infrared detection signals; and a processor in communication with the temperature sensor and the infrared detector to receive the temperature and infrared detection signals, wherein the processor is configured to operate on the infrared detection signals and temperature signals to estimate temperature of the one or more external objects.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>US20200053303A1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Shutterless calibration</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>An imaging system includes a focal plane array including an array of pixels. An isothermal diaphragm covers a first portion of the pixels along a periphery of the array and exposing an imaging portion of the pixels. A controller is operatively connected to the focal plane array to read sensor data from the focal plane array, wherein the sensor data includes image data from the imaging portion of the pixels and non-uniformity data from the first portion of the pixels. The controller is operatively connected to the focal plane array to enhance the image data based on the non-uniformity data.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Non-uniformity correction</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>US20200132546A1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Method for detecting sulfur hexafluoride</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Various embodiments are directed to a method of utilizing an imaging system for detecting a greenhouse gas such as sulfur hexafluoride. The method may include (1) generating, by a first thermal camera coupled to a robotic platform, a static image of a scene utilizing a first spectral filter for passing wavelengths within an SF6 absorption range, (2) generating, by a second thermal camera coupled to the robotic platform, an additional static image of the scene utilizing a second spectral filter for passing wavelengths outside of the SF6 absorption range, and (3) detecting the presence of SF6 in the scene based, at least in part, on the static image, the additional static image, and a difference between the static image and the additional static image.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Automated thermal gas detection system using uncooled thermal detectors.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>US20200132646A1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Sulfur hexafluoride imaging system</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Various embodiments are directed to an imaging system for detecting a greenhouse gas such as sulfur hexafluoride. The system may include a first thermal camera for generating a static image. The first camera may include an uncooled thermal detector and a first spectral filter in an optical path for passing wavelengths within an absorption range of the greenhouse gas. The system may further include a second thermal camera for generating an additional static image. The second camera may include another uncooled thermal detector and a second spectral filter in another optical path for passing wavelengths outside of the absorption range of the greenhouse gas. Both cameras may be aligned with each other and operative to co-collect long exposure images. The system may further include a robotic platform for moving the cameras to facilitate detection of the greenhouse gas based at least in part on a difference between the static images.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Automated leak detection of SF6 gas</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>US20200149973A1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Microbolometer detectors and arrays for printed photonics applications</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Microbolometer detectors and arrays fabricated using printed electronics and photonics techniques, including ink-based printing, are disclosed. A microbolometer detector can include a substrate, a platform suspended above the substrate, and a thermistor printed on the platform and made of a thermistor material including an electrically conducting polymer, for example a poly(3,4-ethylenedioxythiophene) polystyrene sulfonate (PEDOT:PSS) polymeric composition. The microbolometer detector can also include an electrode structure electrically connected to the thermistor, and an ohmic contact layer interposed between the thermistor and the electrode structure. The electrode structure can be made of an electrode material including silver, while the ohmic contact layer can be made of an ohmic contact material including a PEDOT-carbon nanotube polymeric composition. A microbolometer array can include a plurality of microbolometer detectors arranged in a linear or two-dimensional matrix.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Printed electronics; microbolometer technology</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>US20200344426A1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Thermal ranging devices and methods</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>An embodiment of a device is disclosed. The device includes a lens, operative in the infrared, configured to receive an image of a field of view of the lens, a microlens array, operative in the infrared, optically coupled to the lens and configured to create an array of light field images based on the image, a photodetector array comprising a plurality of non-silicon photodetectors, photosensitive in at least part of the thermal spectrum from 3 microns to 14 microns, the photodetector array being optically coupled to the microlens array and configured to generate output signals from the non-silicon photodetectors based on the array of light field images, and a read-out integrated circuit (ROIC) communicatively coupled to the photodetector array and configured to receive the signals from the photodetector array, convert them to digital signals and to output digital data.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Thermal ranging devices</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>US20210048340A1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Exponential Model Based Uncooled Infrared Focal Plane Array Readout Circuit</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>The present disclosure relates to an exponential model based uncooled infrared focal plane array readout circuit, including: a first microbolometer unit and a second microbolometer unit, for obtaining a detection signal and a reference signal; a conversion unit, connected with the first and second microbolometer units, and configured for converting the detection signal and reference signal to obtain a linear detection signal and linear reference signal; a subtraction unit, connected with the conversion unit, and configured for calculating a difference between the detection signal and the reference ratio signal to obtain a difference signal; and an integration unit, connected to the subtraction unit, and configured for integrating the difference signal to obtain an electrical signal for characterizing the infrared light signal of the to-be-detected object.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Exponential model based uncooled infrared focal plane array readout circuit</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>US20210181099A1</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Gas imaging system</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A spectral imaging system configured to obtain spectral measurements in a plurality of spectral regions is described herein. The spectral imaging system comprises at least one optical detecting unit having a spectral response corresponding to a plurality of absorption peaks of a target chemical species. In an embodiment, the optical detecting unit may comprise an optical detector array, and one or more optical filters configured to selectively pass light in a spectral range, wherein a convolution of the responsivity of the optical detector array and the transmission spectrum of the one or more optical filters has a first peak in mid-wave infrared spectral region between 3-4 microns corresponding to a first absorption peak of methane and a second peak in a long-wave infrared spectral region between 6-8 microns corresponding to a second absorption peak of methane.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Spectral imaging system, gas detection</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>US20210258515A1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Thermal imaging camera device</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>An improved camera system includes an uncooled thermal imaging sensor, a rotary actuator, a rotary encoder, and a slip ring. The rotary actuator is physically coupled to the uncooled thermal imaging sensor and enables the sensor to rotate a full 360 degrees any number of times relative to the system's horizontal base. Through the use of the slip ring, the sensor and the sensor's wiring can rotate freely without impedance. Notably, the sensor's wiring can be disposed through a central through-hole running the length of the rotary actuator. Therefore, prior to reaching the slip ring, the sensor and its wiring rotate in unison with the rotary actuator. The encoder is structured to monitor the angular position of the sensor in order to accurately determine where the sensor is being aimed.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Thermal imaging camera device comprising an uncooled thermal imaging sensor and rotary apparatus for enhanced thermal image capture.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>US20210310720A1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Enhanced heat transfer in liquefied gas cooled detector</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A horizontal Dewar flask is used with an optical metrology device, which may advantageously reduce the vertical height of the device. A thermal transfer member provides thermal transfer between a liquefied gas cooled sensor and liquefied gas in a chamber of the Dewar flask. To compensate for the loss of thermal transfer from the sensor as the liquefied gas evaporates and changes to a gaseous state, the thermal transfer member biases heat transfer to the liquefied gas that is at the bottom of the chamber. The thermal transfer member may have a larger surface area at a bottom portion of the thermal transfer member than the upper portion. For example, the thermal transfer member may include one or more projections that extend into the liquefied gas with greater density at the bottom of the chamber than at the top of the chamber.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>US20210389183A1</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>High-speed ultrathin silicon-on-insulator infrared bolometers and imagers</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>In one aspect, the invention provides a nanobolometer cell including a base layer, a dielectric spacer layer above and adjacent to the base layer, an ultrathin silicon film above and adjacent to the spacer layer, and at least one plasmonic optical antenna resonator above and adjacent to the silicon film.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Cooled vs Uncooled Infrared Detectors, Thermal Imaging Technology</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>US20220236187A1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>System and method for real-time multicolor shortwave infrared fluorescence imaging</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>The present invention relates to systems, methods and fluorophores for real-time multicolor shortwave infrared fluorescence imaging. The systems and methods of the present invention further relate to real-time multi-color in vivo SWIR imaging systems employing high-power excitation sources in combination with state of the art InGaAs SWIR detectors and SWIR illuminated fluorophores.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Shortwave infrared fluorescence imaging, multiplexed imaging systems.</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>US20220236280A1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Method and device for imaging fluorescent proteins in near- and short-wave infrared</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>The present invention relates to systems, methods and fluorescent polypeptide for real-time multicolor shortwave infrared fluorescence imaging. The systems and methods of the present invention further relate to real-time multi-color in vivo SWIR imaging systems employing high-power excitation sources in combination with state of the art InGaAs SWIR detectors and SWIR illuminated fluorescent polypeptide.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Imaging systems and methods for real-time multicolor shortwave infrared fluorescence including InGaAs detectors.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>US20220283036A1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Non-uniformity correction source for infrared imaging systems</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>An infrared imaging system is provided. The system includes a sensor configured to receive light emitted by a scene and at least a portion of scenic flux to generate image data, a light source configured to provide calibrating light to offset at least a portion of the scene flux, the light source positioned such that an output of the light source is at a pupil of the infrared imaging system, and at least one image processing device. The image processing device is configured to receive the image data generated by the infrared sensor, determine at least one change in the scenic flux as received by the infrared sensor, determine if the at least one change in the scenic flux results in a change in pixel response of the infrared sensor that exceeds a response threshold, and if the change in pixel response exceeds a threshold, generate an updated calibration table.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>US20230304867A1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Infrared sensor</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>An infrared sensor includes a substrate, an active pixel array, a reference pixel array, a light absorbing layer, a sidewall spacer, and a shading layer. The active pixel array is over the substrate. The reference pixel is over the substrate, adjacent to the active pixel array, and having a reference pixel. The reference pixel includes a platform, a resistor, and an infrared sensing material layer. The resistor is on the platform. The infrared sensing material layer is over the resistor. The light absorbing layer is over the reference pixel. The sidewall spacer is over the reference pixel and extends along a sidewall of the light absorbing layer. The shading layer is conformally formed over the light absorbing layer and the sidewall spacer.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>US20240194707A1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Enhanced area getter architecture for wafer-level vacuum packaged uncooled focal plane array</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Methods and systems utilizing an enhanced area getter architecture for wafer-level vacuum packaged, uncooled focal plane array (FPA) assembly are disclosed. The FPA assembly includes a device die having a first device surface, an infrared detector array disposed on the first device surface, an infrared reference pixel disposed on the first device surface, and a window die bonded to the device die. The window die includes a recess and comprises a first die surface that overlies the infrared detector array, a second die surface that overlies the infrared reference pixel, and a die wall surface joining the first die surface and the second die surface. The die wall surface forms a perimeter of the recess and a getter material is disposed on at least one of the die wall surface or the first die surface.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Wafer-level vacuum packaging, getter architecture</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>US20240377261A1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Bolometer-type infrared detector and method of manufacturing the same</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>To provide a bolometer-type infrared detector whose resistance value is not easily influenced by the external environment and which operates stably, and a method for manufacturing the same.A bolometer-type infrared detector having a laminated structure in which a first protective film, a light reflective film and a second protective film are provided in this order on a heat-sensitive element, whereinthe first protective film is made of at least one selected from the group consisting of a metal oxide film, a metal nitride film, a polyimide, an acrylic resin and a fluororesin;the light reflective film is a metal film; andthe second protective film is made of at least one selected from the group consisting of a metal oxide film, a metal nitride film, a polyimide, an acrylic resin, and a fluororesin.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Bolometer-type infrared detector</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>US20240429262A1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Multiband focal plane array (fpa) enabled by the combination of microbolometer and colloidal quantum dot short wave infrared (swir) detectors on a single readout integrated circuit (roic)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A multiband focal plane array (FPA) is provided including a readout integrated circuit (ROIC) substrate; a plurality of short wave infrared (SWIR) and long wave infrared (LWIR) pixels on the ROIC substrate; a microbolometer on the plurality of SWIR and LWIR pixels; and a colloidal quantum dot photodiode on the SWIR pixels between the SWIR pixels and the microbolometer. The microbolometer is coupled to the LWIR pixels through metal contacts on the LWIR pixels.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Multiband focal plane array (FPA) with colloidal quantum dot photodiodes</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>US20250093206A1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Infrared Sensors</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A system includes a sensor housing and a sensor processor external to the sensor housing. The sensor housing includes an infrared detection module and a thermoelectric module proximate to the infrared detection module. The infrared detection module is configured to detect infrared radiation of a scene and generate a measurement associated with the infrared radiation. The thermoelectric module is configured to provide thermal control to the infrared detection module based on a modulated power signal. An accuracy of the measurement is based on the thermal control provided to the infrared detection module. The sensor processor is configured to transmit a power signal to the infrared detection module and transmit a direct current power signal to the thermoelectric module. The direct current power signal is based on the modulated power signal.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>US20250185393A1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Methods and systems for fabrication of infrared transparent window wafer with integrated anti-reflection grating structures</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A method of fabricating an IR transparent window wafer with integrated AR grating structures includes providing a handle wafer having a first surface and a second surface opposite the first surface, providing a device wafer including a single crystal silicon layer disposed on an oxide layer, the single crystal silicon layer having a planar side and the oxide layer having a bonding side that is opposite the planar side, forming AR grating structures in a first portion of the first surface of the handle wafer, bonding the bonding side of the oxide layer to the first surface of the handle wafer, and etching a recess in the planar side of the single crystal silicon layer to: remove the buried oxide layer, form a plurality of recess walls, and expose the AR grating structures in the first portion of the first surface of the handle wafer.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Methods and systems for fabrication of infrared transparent window wafer with integrated anti-reflection grating structures</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>US20250277603A1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Dual-cool cryo-adapter</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A seeker includes a housing, a digital focal plane array (DFPA), and a cryo-adapter. The DFPA is positioned in the housing. The cryo-adapter is positioned in the housing adjacent to the DFPA. The cryo-adapter is configured to remove heat from the DFPA. The cryo-adapter includes an end cap and tubing. The endcap forms an interior for the cryo-adapter, and the tubing is configured to supply liquefied cryogen to the interior of the cryo-adapter.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>WO2019168218A1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Method for forming sensing film for uncooled infrared sensor and sensing film for uncooled infrared sensor formed thereby, and method for manufacturing uncooled infrared sensor and infrared sensor manufactured thereby</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>The present invention relates to a method for forming a sensing film for an uncooled infrared sensor, which is a method for forming a sensing film for sensing infrared rays in an uncooled infrared sensor, and which comprises: an amorphous film forming step of forming an amorphous silicon film; and a crystallization step of heat treating the amorphous silicon film in a temperature range of 400℃ or lower so as to crystallize the same, wherein a catalyst forming step of forming a transition metal catalyst layer is further performed before or after the amorphous film forming step such that the crystallization step can be performed in the temperature range of 400℃ or lower, and the crystallization step is performed on the amorphous silicon film with which the transition metal catalyst layer comes into contact. The present invention allows the amorphous silicon film to be crystallized at a low temperature, thereby achieving an effect of enabling a crystalline silicon film, having improved sensitivity and performance, to be provided as a sensing film for an uncooled infrared sensor. In addition, the present invention has an advantage of having compatibility with a conventional CMOS manufacturing process, and has an excellent effect of being a technology that is not limited to a specific technical node but is applicable to almost all types of nodes and technical nodes formed into a microbolometer type structure.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Method for forming sensing film for uncooled infrared sensor</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>WO2020117245A1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Computational reconfigurable imaging spectrometer</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A hyperspectral imaging system comprising: a first dispersive element to disperse an image moving laterally with respect to an optical axis of the hyperspectral imaging system into N spectral components, a coding mask, in optical communication with the first dispersive element, to encode the N spectral components with a predetermined code, a second dispersive element, in optical communication with the coding mask, to recombine the N spectral components into an encoded image, a detector array, in optical communication with the second dispersive element and having M &gt;/= N detector elements, to detect the encoded image, wherein M and N are positive integers and a processor, operably coupled to the detector array, to form a reconstructed version of the image from the encoded image, the processor configured to estimate the motion blur from the reconstructed version of the image based on the predetermined code.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Computational Reconfigurable Imaging Spectrometer</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>WO2021241575A1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Bolometer material, infrared sensor, and manufacturing method thereof</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>One purpose of this invention is to provide: a bolometer thin film having a high temperature coefficient resistance (TCR) value; an infrared sensor; and an infrared sensor manufacturing method. The present invention provides: a bolometer material that is a thin film including a semiconductor carbon nanotube and a negative thermal expansion material; and an infrared sensor comprising the bolometer material.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Bolometer material using carbon nanotubes and negative thermal expansion material.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>WO2022188099A1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Detector, detection device and method, mobile platform, and readable storage medium</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A non-refrigeration infrared focal plane detector (100, 4), a detection device, a detection method, a mobile platform, and a computer readable storage medium. The detection device comprises a controller, a shielding structure (13, 3), and a detector (100, 4). The detector (100, 4) comprises a first imaging area (110) and a second imaging area (120). The controller is connected to the detector (100, 4). The first imaging area (110) is configured to receive thermal radiation from a target object and a particular component of the non-refrigeration infrared focal plane detection device. The shielding structure (13, 3) is configured to shield the second imaging area (120) to prevent the second imaging area (120) from receiving thermal radiation from the target object. The second imaging area (120) is configured to receive thermal radiation from the particular component of the non-refrigeration infrared focal plane detection device. The responsivity of the first imaging area (110) and the responsivity of the second imaging area (120) are separately adjustable. The controller is configured to calculate, according to the radiation amount received by the first imaging area (110) and the radiation amount received by the second imaging area (120), a net radiation amount of the target object received by the first imaging area (110).</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>WO2023020079A1</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Multi-color cooled infrared detector and preparation method therefor</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Provided in the present invention are a multi-color cooled infrared detector and a preparation method therefor, which are applied to the technical field of semiconductors. Specifically, a first epitaxial layer and a second epitaxial layer, which are made of mercury cadmium telluride (MCT), are respectively grown on a first cadmium zinc telluride (CZT) substrate and a second CZT substrate, a first infrared detector is formed on the second epitaxial layer of the second CZT substrate, the first epitaxial layer of the first CZT substrate is then bonded to the first infrared detector which is formed on the second epitaxial layer of the second CZT substrate, a second infrared detector is formed on the upper surface of the first epitaxial layer after the first CZT substrate is removed, and finally, an interconnection between infrared detectors on different CZT substrates is realized by means of an interconnection process, such that a multi-color cooled infrared detector can be prepared.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>WO2023065382A1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Pixel-level encapsulation structure of uncooled infrared detector, and manufacturing method therefor</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A pixel-level encapsulation structure of an uncooled infrared detector, and a manufacturing method therefor. The pixel-level encapsulation structure comprises an integrated circuit substrate and a pixel device, which is arranged on the upper surface of the integrated circuit substrate, wherein the pixel device comprises a pixel unit and an air suction unit, which is arranged on a side of the pixel unit; the air suction unit comprises a getter layer, which is arranged on the upper surface of the integrated circuit substrate, a support layer, and a sealing layer, which is arranged on an upper surface of the support layer, and a cavity in the air suction unit is in communication with a cavity of the pixel unit; or the pixel device comprises a getter layer and a reflective layer, which are arranged on the upper surface of the integrated circuit substrate, and an infrared sensor unit, which is arranged above the reflective layer and corresponds to the reflective layer. The pixel device comprises the pixel unit and the air suction unit, which is arranged on the side of the pixel unit, and the getter layer is not arranged in the pixel unit; or the getter layer in the pixel device does not correspond to the infrared sensor unit. In this way, the impact of the getter layer on the infrared sensor unit is avoided, thereby improving the performance of an uncooled infrared detector.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Pixel-level encapsulation structure and manufacturing method for uncooled infrared detectors.</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>WO2023069916A1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Buried photodetector with hetero structure as a gate</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Disclosed herein are device and method embodiments for photodetectors photo-detection. For example, a photodetector includes one or more pixels region of semiconductor material configured to accumulate photocurrent, one or more sense regions of semiconductor material (each sense region associated with a corresponding pixel region) a hetero junction interposed between at least one sense region and its corresponding pixel region (wherein the hetero junction is operable, in a first state, to maintain the photocurrent in the pixel region, and operable, in a second state, to allow the photocurrent to move from the pixel region to its corresponding sense region) and readout electronics configured to operate the hetero junction, causing the accumulated photocurrent to move from pixel regions to corresponding sense regions, the readout electronics further configured to measure the photocurrent at the corresponding sense regions.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>WO2023141768A1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Microbolometer and preparation method therefor</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>The present application provides a microbolometer and a preparation method therefor. In the microbolometer, a getter layer is integrated on a substrate below a bridge surface of a support bridge for supporting a thermally sensitive layer, and the microbolometer and the getter layer can be prepared by using an MEMS process, thereby facilitating optimizing the preparation process of the microbolometer. In addition, the getter layer is arranged inside the microbolometer, so that the microbolometer is not limited by the complexity of a packaging structure and the difficulty of a packaging process, the efficiency of production of the microbolometer can be effectively improved, and the production cost is reduced.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Microbolometer preparation method</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>WO2024050677A1</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Infrared microbolometer detector, design method and manufacturing method therefor, and system</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>An infrared microbolometer detector (100), a design method and manufacturing method therefor, and a system. The infrared microbolometer detector comprises: a first substrate, a detector readout circuit (106), a microbolometer micro-electromechanical system structure (105), and a pixel-level metasurface layer (102). The pixel-level metasurface layer (102) comprises a plurality of pixel-level metasurface minimum units (304), and the size M of each of the pixel-level metasurface minimum units (304) meets the following condition: M&lt;λ/2nmeta, wherein λ is the wavelength of incident light, and nmeta is the refractive index of the pixel-level metasurface layer (102). The size of each pixel-level metasurface minimum unit (304) is smaller than the wavelength of incident light, incident light can therefore be finely distinguished, and the distinguished incident light is converged into the specific microbolometer micro-electromechanical system structure (105), so as to facilitate the detector readout circuit (106) to perform reading, and a finer infrared image is finally obtained.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>microbolometer detector, design method, manufacturing method</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>WO2024087338A1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Thermosensitive thin film, infrared detector, and manufacturing method for infrared detector</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>The present application relates to the technical field of thermosensitive materials and infrared detection. Disclosed are a thermosensitive thin film, an infrared detector, and a manufacturing method for the infrared detector. The thermosensitive thin film comprises SnSex particles, wherein x=1-2. The temperature coefficient of resistance (TCR) of the provided thermosensitive thin film is as high as 9.1 %/K, and is higher than that of traditional vanadium oxide and amorphous silicon thermosensitive thin films, so that the signal response intensity of a device comprising the thermosensitive thin film can be improved, and the performance of the device can be improved.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Thermosensitive materials and infrared detection technology.</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>WO2025059800A1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Planar array-level packaged uncooled infrared detector and preparation method therefor</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Disclosed in the present invention are a planar array-level packaged uncooled infrared detector and a preparation method therefor. The detector comprises a substrate, an effective element array, and a getter; an effective element region and a non-effective element region are provided on the substrate, wherein the effective element array is disposed within the effective element region, the getter is suspended in the non-effective element region, and the position of the getter is higher than that of the effective element array. In the present invention, hanging the getter upside down avoids the impact of temperature on the getter during the preparation in existing processes, and effectively solves the problem of getter failure during the implementation of the existing processes, thus effectively maintaining a vacuum environment inside a packaging structure.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Preparation method for uncooled infrared detector.</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>WO2025103182A1</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Area array-level packaged uncooled infrared detector and preparation method therefor</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>The present invention relates to the field of detectors. Disclosed are an area array-level packaged uncooled infrared detector and a preparation method therefor. The area array-level packaged uncooled infrared detector comprises a readout circuit substrate and active elements of a pixel region which is arranged on the upper surface of the readout circuit substrate and is electrically connected to the readout circuit substrate. The area array-level packaged uncooled infrared detector further comprises a getter deposition region. According to the area array-level packaged uncooled infrared detector, an independent region is opened up for a getter main body, and deposition of the getter main body is carried out after a structural sacrificial layer is released, so as to prevent the influence of high temperature and organic solutions on the performance of the getter main body during a MEMS process. Furthermore, thermal activation is adopted, and an activation mode of the getter main body is simple, thereby facilitating batch production and manufacturing.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>packaged uncooled infrared detector</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>WO2025106982A1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Cryogenic thermal imager</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A high-speed global-shutter thermal imaging system includes a cryostat, the cryostat including a store of coolant and a detector assembly, a vacuum pump, and an output channel to a analog-to-digital converter (ADC).</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Cryogenic thermal imaging technology</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>WO2025172647A1</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Infrared radiation detector</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>This infrared radiation detector comprises: - a cryostat provided with a cold finger, capable of ensuring heat exchange with a cold source, and a window transparent to the infrared radiation to be detected; - a cold plane, mechanically fixed to and in a heat exchange relationship with the cold finger; - a detection block comprising at least one detection matrix sensitive to the infrared wavelength range to be detected, and in a heat exchange relationship directly or indirectly with the cold plane; - a cold shield mechanically fixed to and in a heat exchange relationship with the cold plane and capable of limiting parasitic radiation, the cold shield being provided with at least one diaphragm or baffle (9), oriented radially with respect to the overall orientation of the detector, and provided with an opening capable of allowing the transit of the optical path resulting from the incident radiation. The free edge (13) of the at least one diaphragm or baffle (9) is structured such that non-linear patterns (14) are defined.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
